--- a/Squads/B1/Charleroi_Beerschot VA_squad.xlsx
+++ b/Squads/B1/Charleroi_Beerschot VA_squad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="190">
   <si>
     <t>Rk</t>
   </si>
@@ -47,15 +47,15 @@
     <t>Min</t>
   </si>
   <si>
-    <t>90s</t>
-  </si>
-  <si>
     <t>Gls</t>
   </si>
   <si>
     <t>Ast</t>
   </si>
   <si>
+    <t>GlspAst</t>
+  </si>
+  <si>
     <t>npG</t>
   </si>
   <si>
@@ -110,106 +110,115 @@
     <t>npxG p90</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>240</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>328</t>
   </si>
   <si>
     <t>114</t>
   </si>
   <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
     <t>120</t>
   </si>
   <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>267</t>
+    <t>149</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>320</t>
   </si>
   <si>
     <t>Etienne Camara</t>
@@ -218,13 +227,28 @@
     <t>Welat Cagro</t>
   </si>
   <si>
+    <t>Daan Heymans</t>
+  </si>
+  <si>
+    <t>Jérémy Pétris</t>
+  </si>
+  <si>
+    <t>Simion Michez</t>
+  </si>
+  <si>
+    <t>Stelios Andreou</t>
+  </si>
+  <si>
+    <t>Antoine Bernier</t>
+  </si>
+  <si>
     <t>Vetle Dragsnes</t>
   </si>
   <si>
-    <t>Daan Heymans</t>
-  </si>
-  <si>
-    <t>Jérémy Pétris</t>
+    <t>Check Keita</t>
+  </si>
+  <si>
+    <t>Mohamed Koné</t>
   </si>
   <si>
     <t>Yassine Titraoui</t>
@@ -233,10 +257,19 @@
     <t>Charly Keita</t>
   </si>
   <si>
+    <t>Tolis Konstantopoulos</t>
+  </si>
+  <si>
+    <t>Davor Matijas</t>
+  </si>
+  <si>
+    <t>Tom Reyners</t>
+  </si>
+  <si>
     <t>Derrick Tshimanga</t>
   </si>
   <si>
-    <t>Stelios Andreou</t>
+    <t>Marco Weymans</t>
   </si>
   <si>
     <t>Raymond Asante</t>
@@ -245,9 +278,6 @@
     <t>Youssouph Badji</t>
   </si>
   <si>
-    <t>Antoine Bernier</t>
-  </si>
-  <si>
     <t>Amine Boukamir</t>
   </si>
   <si>
@@ -257,18 +287,15 @@
     <t>Parfait Guiagon</t>
   </si>
   <si>
-    <t>Check Keita</t>
-  </si>
-  <si>
-    <t>Mohamed Koné</t>
-  </si>
-  <si>
     <t>Isaac Mbenza</t>
   </si>
   <si>
     <t>Mardochee Nzita</t>
   </si>
   <si>
+    <t>Aiham Ousou</t>
+  </si>
+  <si>
     <t>Youssuf Sylla</t>
   </si>
   <si>
@@ -281,36 +308,27 @@
     <t>Dean Huiberts</t>
   </si>
   <si>
-    <t>Tolis Konstantopoulos</t>
+    <t>Ayouba Kosiah</t>
   </si>
   <si>
     <t>Ar'jany Martha</t>
   </si>
   <si>
-    <t>Davor Matijas</t>
-  </si>
-  <si>
     <t>Hervé Matthys</t>
   </si>
   <si>
-    <t>Simion Michez</t>
-  </si>
-  <si>
     <t>Brian Plat</t>
   </si>
   <si>
-    <t>Tom Reyners</t>
-  </si>
-  <si>
     <t>Ryan Sanusi</t>
   </si>
   <si>
+    <t>Óscar Vargas</t>
+  </si>
+  <si>
     <t>Thibaud Verlinden</t>
   </si>
   <si>
-    <t>Marco Weymans</t>
-  </si>
-  <si>
     <t>D'Margio Wright-Phillips</t>
   </si>
   <si>
@@ -320,13 +338,25 @@
     <t>be BEL</t>
   </si>
   <si>
+    <t>cy CYP</t>
+  </si>
+  <si>
     <t>no NOR</t>
   </si>
   <si>
+    <t>ci CIV</t>
+  </si>
+  <si>
     <t>dz ALG</t>
   </si>
   <si>
-    <t>cy CYP</t>
+    <t>gr GRE</t>
+  </si>
+  <si>
+    <t>hr CRO</t>
+  </si>
+  <si>
+    <t>bi BDI</t>
   </si>
   <si>
     <t>gh GHA</t>
@@ -338,7 +368,7 @@
     <t>ps PLE</t>
   </si>
   <si>
-    <t>ci CIV</t>
+    <t>sy SYR</t>
   </si>
   <si>
     <t>sct SCO</t>
@@ -347,13 +377,10 @@
     <t>nl NED</t>
   </si>
   <si>
-    <t>gr GRE</t>
-  </si>
-  <si>
-    <t>hr CRO</t>
-  </si>
-  <si>
-    <t>bi BDI</t>
+    <t>lr LBR</t>
+  </si>
+  <si>
+    <t>es ESP</t>
   </si>
   <si>
     <t>eng ENG</t>
@@ -365,19 +392,25 @@
     <t>DF</t>
   </si>
   <si>
+    <t>DF,MF</t>
+  </si>
+  <si>
     <t>FW</t>
   </si>
   <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>MF,FW</t>
+  </si>
+  <si>
     <t>FW,MF</t>
   </si>
   <si>
-    <t>MF,FW</t>
-  </si>
-  <si>
-    <t>GK</t>
-  </si>
-  <si>
-    <t>DF,MF</t>
+    <t>FW,DF</t>
+  </si>
+  <si>
+    <t>DF,FW</t>
   </si>
   <si>
     <t>Charleroi</t>
@@ -386,106 +419,115 @@
     <t>Beerschot VA</t>
   </si>
   <si>
-    <t>21-129</t>
-  </si>
-  <si>
-    <t>25-067</t>
-  </si>
-  <si>
-    <t>30-182</t>
+    <t>21-153</t>
+  </si>
+  <si>
+    <t>25-091</t>
+  </si>
+  <si>
+    <t>25-076</t>
+  </si>
+  <si>
+    <t>26-215</t>
+  </si>
+  <si>
+    <t>22-203</t>
+  </si>
+  <si>
+    <t>22-037</t>
+  </si>
+  <si>
+    <t>26-355</t>
+  </si>
+  <si>
+    <t>30-206</t>
+  </si>
+  <si>
+    <t>21-150</t>
+  </si>
+  <si>
+    <t>22-176</t>
+  </si>
+  <si>
+    <t>21-035</t>
+  </si>
+  <si>
+    <t>25-075</t>
+  </si>
+  <si>
+    <t>22-028</t>
+  </si>
+  <si>
+    <t>25-007</t>
+  </si>
+  <si>
+    <t>24-132</t>
+  </si>
+  <si>
+    <t>35-298</t>
+  </si>
+  <si>
+    <t>27-052</t>
+  </si>
+  <si>
+    <t>20-095</t>
+  </si>
+  <si>
+    <t>22-254</t>
+  </si>
+  <si>
+    <t>17-312</t>
+  </si>
+  <si>
+    <t>25-271</t>
+  </si>
+  <si>
+    <t>23-190</t>
+  </si>
+  <si>
+    <t>28-175</t>
+  </si>
+  <si>
+    <t>24-188</t>
+  </si>
+  <si>
+    <t>24-234</t>
+  </si>
+  <si>
+    <t>21-255</t>
+  </si>
+  <si>
+    <t>24-237</t>
+  </si>
+  <si>
+    <t>24-156</t>
+  </si>
+  <si>
+    <t>24-106</t>
+  </si>
+  <si>
+    <t>23-039</t>
+  </si>
+  <si>
+    <t>20-361</t>
+  </si>
+  <si>
+    <t>28-224</t>
+  </si>
+  <si>
+    <t>24-147</t>
+  </si>
+  <si>
+    <t>32-238</t>
+  </si>
+  <si>
+    <t>18-212</t>
   </si>
   <si>
     <t>25-052</t>
   </si>
   <si>
-    <t>26-191</t>
-  </si>
-  <si>
-    <t>21-011</t>
-  </si>
-  <si>
-    <t>25-051</t>
-  </si>
-  <si>
-    <t>35-274</t>
-  </si>
-  <si>
-    <t>22-013</t>
-  </si>
-  <si>
-    <t>20-071</t>
-  </si>
-  <si>
-    <t>22-230</t>
-  </si>
-  <si>
-    <t>26-331</t>
-  </si>
-  <si>
-    <t>17-288</t>
-  </si>
-  <si>
-    <t>25-247</t>
-  </si>
-  <si>
-    <t>23-166</t>
-  </si>
-  <si>
-    <t>21-126</t>
-  </si>
-  <si>
-    <t>22-152</t>
-  </si>
-  <si>
-    <t>28-151</t>
-  </si>
-  <si>
-    <t>24-164</t>
-  </si>
-  <si>
-    <t>21-231</t>
-  </si>
-  <si>
-    <t>24-213</t>
-  </si>
-  <si>
-    <t>24-132</t>
-  </si>
-  <si>
-    <t>24-082</t>
-  </si>
-  <si>
-    <t>22-004</t>
-  </si>
-  <si>
-    <t>20-337</t>
-  </si>
-  <si>
-    <t>24-349</t>
-  </si>
-  <si>
-    <t>28-200</t>
-  </si>
-  <si>
-    <t>22-179</t>
-  </si>
-  <si>
-    <t>24-123</t>
-  </si>
-  <si>
-    <t>24-108</t>
-  </si>
-  <si>
-    <t>32-214</t>
-  </si>
-  <si>
-    <t>25-028</t>
-  </si>
-  <si>
-    <t>27-028</t>
-  </si>
-  <si>
-    <t>22-317</t>
+    <t>22-341</t>
   </si>
   <si>
     <t>2003</t>
@@ -494,43 +536,52 @@
     <t>1999</t>
   </si>
   <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
     <t>1994</t>
   </si>
   <si>
-    <t>1998</t>
+    <t>2000</t>
   </si>
   <si>
     <t>1988</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
     <t>2004</t>
   </si>
   <si>
     <t>2001</t>
   </si>
   <si>
-    <t>1997</t>
-  </si>
-  <si>
     <t>2006</t>
   </si>
   <si>
     <t>1996</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>1992</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -685,37 +736,37 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>45.0</v>
+        <v>52.0</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J2" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0</v>
+        <v>394.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -736,7 +787,7 @@
         <v>0.0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="T2" t="n">
         <v>0.0</v>
@@ -754,13 +805,13 @@
         <v>0.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB2" t="n">
         <v>0.0</v>
@@ -778,7 +829,7 @@
         <v>0.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -786,82 +837,82 @@
         <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="I3" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>424.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>2.0</v>
       </c>
-      <c r="K3" t="n">
-        <v>171.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Z3" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB3" t="n">
         <v>0.0</v>
@@ -879,7 +930,7 @@
         <v>0.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.01</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -887,100 +938,100 @@
         <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>65.0</v>
+        <v>116.0</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="I4" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>447.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S4" t="n">
         <v>2.0</v>
       </c>
-      <c r="K4" t="n">
-        <v>171.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.0</v>
-      </c>
       <c r="T4" t="n">
         <v>0.0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0</v>
+        <v>2.9</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.0</v>
+        <v>26.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0</v>
+        <v>0.81</v>
       </c>
       <c r="AC4" t="n">
         <v>0.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0</v>
+        <v>0.81</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -988,100 +1039,100 @@
         <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>95.0</v>
+        <v>224.0</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="I5" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S5" t="n">
         <v>2.0</v>
       </c>
-      <c r="K5" t="n">
-        <v>177.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.0</v>
-      </c>
       <c r="T5" t="n">
         <v>0.0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="X5" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.02</v>
+        <v>0.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.02</v>
+        <v>0.2</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.51</v>
+        <v>0.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.51</v>
+        <v>0.2</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.8</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -1089,50 +1140,50 @@
         <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>185.0</v>
+        <v>184.0</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H6" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="I6" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>438.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M6" t="n">
         <v>2.0</v>
       </c>
-      <c r="K6" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P6" t="n">
         <v>2.0</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q6" t="n">
         <v>0.0</v>
       </c>
@@ -1140,49 +1191,49 @@
         <v>0.0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T6" t="n">
         <v>0.0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4</v>
+        <v>1.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0</v>
+        <v>0.41</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0</v>
+        <v>0.41</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -1190,37 +1241,37 @@
         <v>37</v>
       </c>
       <c r="B7" t="n">
-        <v>240.0</v>
+        <v>16.0</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="I7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="K7" t="n">
-        <v>10.0</v>
+        <v>450.0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1</v>
+        <v>5.0</v>
       </c>
       <c r="M7" t="n">
         <v>0.0</v>
@@ -1247,22 +1298,22 @@
         <v>0.0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="W7" t="n">
         <v>0.0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="AA7" t="n">
         <v>0.0</v>
@@ -1283,7 +1334,7 @@
         <v>0.0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
@@ -1291,37 +1342,37 @@
         <v>38</v>
       </c>
       <c r="B8" t="n">
-        <v>114.0</v>
+        <v>36.0</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="H8" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="I8" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J8" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K8" t="n">
-        <v>164.0</v>
+        <v>317.0</v>
       </c>
       <c r="L8" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.0</v>
@@ -1348,43 +1399,43 @@
         <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.0</v>
+        <v>39.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
       <c r="AC8" t="n">
         <v>0.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -1392,37 +1443,37 @@
         <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>241.0</v>
+        <v>78.0</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="H9" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="I9" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="K9" t="n">
-        <v>180.0</v>
+        <v>438.0</v>
       </c>
       <c r="L9" t="n">
-        <v>2.0</v>
+        <v>4.9</v>
       </c>
       <c r="M9" t="n">
         <v>0.0</v>
@@ -1455,19 +1506,19 @@
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="AB9" t="n">
         <v>0.0</v>
@@ -1485,7 +1536,7 @@
         <v>0.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10">
@@ -1493,82 +1544,82 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0</v>
+        <v>139.0</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I10" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>415.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>2.0</v>
       </c>
-      <c r="K10" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Z10" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB10" t="n">
         <v>0.0</v>
@@ -1586,7 +1637,7 @@
         <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -1594,37 +1645,37 @@
         <v>41</v>
       </c>
       <c r="B11" t="n">
-        <v>18.0</v>
+        <v>146.0</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="H11" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="I11" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="K11" t="n">
-        <v>21.0</v>
+        <v>450.0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2</v>
+        <v>5.0</v>
       </c>
       <c r="M11" t="n">
         <v>0.0</v>
@@ -1645,7 +1696,7 @@
         <v>0.0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
@@ -1669,7 +1720,7 @@
         <v>0.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" t="n">
         <v>0.0</v>
@@ -1687,7 +1738,7 @@
         <v>0.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -1695,37 +1746,37 @@
         <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>21.0</v>
+        <v>286.0</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H12" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="I12" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="J12" t="n">
         <v>0.0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.0</v>
+        <v>29.0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M12" t="n">
         <v>0.0</v>
@@ -1746,31 +1797,31 @@
         <v>0.0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X12" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB12" t="n">
         <v>0.0</v>
@@ -1788,7 +1839,7 @@
         <v>0.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.84</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -1796,37 +1847,37 @@
         <v>43</v>
       </c>
       <c r="B13" t="n">
-        <v>33.0</v>
+        <v>138.0</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H13" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="I13" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J13" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="K13" t="n">
-        <v>95.0</v>
+        <v>354.0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="M13" t="n">
         <v>1.0</v>
@@ -1847,49 +1898,49 @@
         <v>0.0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T13" t="n">
         <v>0.0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="W13" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.95</v>
+        <v>0.25</v>
       </c>
       <c r="AC13" t="n">
         <v>0.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.95</v>
+        <v>0.25</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.95</v>
+        <v>0.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.95</v>
+        <v>0.25</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="14">
@@ -1897,37 +1948,37 @@
         <v>44</v>
       </c>
       <c r="B14" t="n">
-        <v>38.0</v>
+        <v>148.0</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H14" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="I14" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K14" t="n">
-        <v>11.0</v>
+        <v>315.0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1</v>
+        <v>3.5</v>
       </c>
       <c r="M14" t="n">
         <v>0.0</v>
@@ -1948,7 +1999,7 @@
         <v>0.0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T14" t="n">
         <v>0.0</v>
@@ -1966,13 +2017,13 @@
         <v>0.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB14" t="n">
         <v>0.0</v>
@@ -1990,7 +2041,7 @@
         <v>0.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15">
@@ -1998,37 +2049,37 @@
         <v>45</v>
       </c>
       <c r="B15" t="n">
-        <v>52.0</v>
+        <v>173.0</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="H15" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="K15" t="n">
-        <v>26.0</v>
+        <v>450.0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3</v>
+        <v>5.0</v>
       </c>
       <c r="M15" t="n">
         <v>0.0</v>
@@ -2049,31 +2100,31 @@
         <v>0.0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T15" t="n">
         <v>0.0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="X15" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" t="n">
         <v>0.0</v>
@@ -2091,7 +2142,7 @@
         <v>0.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.21</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -2099,49 +2150,49 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>86.0</v>
+        <v>237.0</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="I16" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="J16" t="n">
         <v>2.0</v>
       </c>
       <c r="K16" t="n">
-        <v>159.0</v>
+        <v>191.0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" t="n">
         <v>0.0</v>
@@ -2150,49 +2201,49 @@
         <v>0.0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T16" t="n">
         <v>0.0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="X16" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.57</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" t="n">
         <v>0.0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.57</v>
+        <v>0.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.57</v>
+        <v>0.0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.57</v>
+        <v>0.0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="17">
@@ -2200,100 +2251,100 @@
         <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>115.0</v>
+        <v>289.0</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="H17" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>405.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y17" t="n">
         <v>2.0</v>
       </c>
-      <c r="K17" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Z17" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0</v>
+        <v>0.22</v>
       </c>
       <c r="AC17" t="n">
         <v>0.0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0</v>
+        <v>0.22</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0</v>
+        <v>0.22</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0</v>
+        <v>0.22</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="18">
@@ -2301,37 +2352,37 @@
         <v>48</v>
       </c>
       <c r="B18" t="n">
-        <v>120.0</v>
+        <v>319.0</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="H18" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="J18" t="n">
         <v>2.0</v>
       </c>
       <c r="K18" t="n">
-        <v>180.0</v>
+        <v>284.0</v>
       </c>
       <c r="L18" t="n">
-        <v>2.0</v>
+        <v>3.2</v>
       </c>
       <c r="M18" t="n">
         <v>0.0</v>
@@ -2352,31 +2403,31 @@
         <v>0.0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T18" t="n">
         <v>0.0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="AB18" t="n">
         <v>0.0</v>
@@ -2394,7 +2445,7 @@
         <v>0.0</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19">
@@ -2402,37 +2453,37 @@
         <v>49</v>
       </c>
       <c r="B19" t="n">
-        <v>145.0</v>
+        <v>20.0</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G19" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H19" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="J19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K19" t="n">
-        <v>85.0</v>
+        <v>21.0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="M19" t="n">
         <v>0.0</v>
@@ -2471,13 +2522,13 @@
         <v>0.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB19" t="n">
         <v>0.0</v>
@@ -2495,7 +2546,7 @@
         <v>0.0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20">
@@ -2503,46 +2554,46 @@
         <v>50</v>
       </c>
       <c r="B20" t="n">
-        <v>172.0</v>
+        <v>24.0</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H20" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K20" t="n">
-        <v>9.0</v>
+        <v>205.0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1</v>
+        <v>2.3</v>
       </c>
       <c r="M20" t="n">
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P20" t="n">
         <v>0.0</v>
@@ -2560,43 +2611,43 @@
         <v>0.0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0</v>
+        <v>1.7</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0</v>
+        <v>1.7</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0</v>
+        <v>2.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB20" t="n">
         <v>0.0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.0</v>
+        <v>0.44</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0</v>
+        <v>0.44</v>
       </c>
       <c r="AE20" t="n">
         <v>0.0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.0</v>
+        <v>0.44</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="21">
@@ -2604,37 +2655,37 @@
         <v>51</v>
       </c>
       <c r="B21" t="n">
-        <v>234.0</v>
+        <v>44.0</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="H21" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="J21" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>143.0</v>
+        <v>11.0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="M21" t="n">
         <v>0.0</v>
@@ -2661,25 +2712,25 @@
         <v>0.0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="W21" t="n">
         <v>0.0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" t="n">
         <v>0.0</v>
@@ -2697,7 +2748,7 @@
         <v>0.0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.28</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -2705,46 +2756,46 @@
         <v>52</v>
       </c>
       <c r="B22" t="n">
-        <v>273.0</v>
+        <v>62.0</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H22" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J22" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K22" t="n">
-        <v>173.0</v>
+        <v>61.0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="M22" t="n">
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P22" t="n">
         <v>0.0</v>
@@ -2774,31 +2825,31 @@
         <v>0.3</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="AB22" t="n">
         <v>0.0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.52</v>
+        <v>0.0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.52</v>
+        <v>0.0</v>
       </c>
       <c r="AE22" t="n">
         <v>0.0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.52</v>
+        <v>0.0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="23">
@@ -2806,49 +2857,49 @@
         <v>53</v>
       </c>
       <c r="B23" t="n">
-        <v>93.0</v>
+        <v>107.0</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H23" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I23" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="K23" t="n">
-        <v>31.0</v>
+        <v>397.0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3</v>
+        <v>4.4</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q23" t="n">
         <v>0.0</v>
@@ -2863,43 +2914,43 @@
         <v>0.0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0</v>
+        <v>1.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0</v>
+        <v>0.23</v>
       </c>
       <c r="AC23" t="n">
         <v>0.0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0</v>
+        <v>0.23</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.0</v>
+        <v>0.23</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.0</v>
+        <v>0.23</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="24">
@@ -2907,37 +2958,37 @@
         <v>54</v>
       </c>
       <c r="B24" t="n">
-        <v>98.0</v>
+        <v>176.0</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="H24" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="I24" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K24" t="n">
-        <v>23.0</v>
+        <v>117.0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
         <v>0.0</v>
@@ -2964,25 +3015,25 @@
         <v>0.0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W24" t="n">
         <v>0.0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB24" t="n">
         <v>0.0</v>
@@ -3000,7 +3051,7 @@
         <v>0.0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="25">
@@ -3008,37 +3059,37 @@
         <v>55</v>
       </c>
       <c r="B25" t="n">
-        <v>121.0</v>
+        <v>207.0</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="H25" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="I25" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J25" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>180.0</v>
+        <v>21.0</v>
       </c>
       <c r="L25" t="n">
-        <v>2.0</v>
+        <v>0.2</v>
       </c>
       <c r="M25" t="n">
         <v>0.0</v>
@@ -3077,13 +3128,13 @@
         <v>0.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB25" t="n">
         <v>0.0</v>
@@ -3109,37 +3160,37 @@
         <v>56</v>
       </c>
       <c r="B26" t="n">
-        <v>140.0</v>
+        <v>221.0</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H26" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="I26" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J26" t="n">
         <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>10.0</v>
+        <v>39.0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="M26" t="n">
         <v>0.0</v>
@@ -3184,7 +3235,7 @@
         <v>0.0</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" t="n">
         <v>0.0</v>
@@ -3202,7 +3253,7 @@
         <v>0.0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="27">
@@ -3210,37 +3261,37 @@
         <v>57</v>
       </c>
       <c r="B27" t="n">
-        <v>142.0</v>
+        <v>280.0</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H27" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="I27" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K27" t="n">
-        <v>180.0</v>
+        <v>245.0</v>
       </c>
       <c r="L27" t="n">
-        <v>2.0</v>
+        <v>2.7</v>
       </c>
       <c r="M27" t="n">
         <v>0.0</v>
@@ -3267,25 +3318,25 @@
         <v>0.0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="W27" t="n">
         <v>0.0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="AB27" t="n">
         <v>0.0</v>
@@ -3303,7 +3354,7 @@
         <v>0.0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="28">
@@ -3311,100 +3362,100 @@
         <v>58</v>
       </c>
       <c r="B28" t="n">
-        <v>143.0</v>
+        <v>328.0</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H28" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="I28" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N28" t="n">
         <v>2.0</v>
       </c>
-      <c r="K28" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="O28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W28" t="n">
         <v>1.1</v>
       </c>
-      <c r="M28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0.0</v>
-      </c>
       <c r="X28" t="n">
-        <v>0.0</v>
+        <v>1.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>3.0</v>
+        <v>56.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB28" t="n">
         <v>0.0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0</v>
+        <v>0.41</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.0</v>
+        <v>0.41</v>
       </c>
       <c r="AE28" t="n">
         <v>0.0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.0</v>
+        <v>0.41</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="29">
@@ -3412,49 +3463,49 @@
         <v>59</v>
       </c>
       <c r="B29" t="n">
-        <v>152.0</v>
+        <v>114.0</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G29" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H29" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="I29" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="J29" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K29" t="n">
-        <v>180.0</v>
+        <v>234.0</v>
       </c>
       <c r="L29" t="n">
-        <v>2.0</v>
+        <v>2.6</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q29" t="n">
         <v>0.0</v>
@@ -3469,43 +3520,43 @@
         <v>0.0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="V29" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA29" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0</v>
+        <v>0.38</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.0</v>
+        <v>0.38</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.0</v>
+        <v>0.38</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.0</v>
+        <v>0.38</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="30">
@@ -3513,37 +3564,37 @@
         <v>60</v>
       </c>
       <c r="B30" t="n">
-        <v>188.0</v>
+        <v>120.0</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="H30" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="I30" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="J30" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>180.0</v>
+        <v>34.0</v>
       </c>
       <c r="L30" t="n">
-        <v>2.0</v>
+        <v>0.4</v>
       </c>
       <c r="M30" t="n">
         <v>0.0</v>
@@ -3570,25 +3621,25 @@
         <v>0.0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V30" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X30" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z30" t="n">
         <v>2.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB30" t="n">
         <v>0.0</v>
@@ -3606,7 +3657,7 @@
         <v>0.0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -3614,82 +3665,82 @@
         <v>61</v>
       </c>
       <c r="B31" t="n">
-        <v>197.0</v>
+        <v>149.0</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="H31" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I31" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA31" t="n">
         <v>2.0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>135.0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>8.0</v>
       </c>
       <c r="AB31" t="n">
         <v>0.0</v>
@@ -3715,37 +3766,37 @@
         <v>62</v>
       </c>
       <c r="B32" t="n">
-        <v>209.0</v>
+        <v>171.0</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G32" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="H32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I32" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="J32" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K32" t="n">
-        <v>180.0</v>
+        <v>80.0</v>
       </c>
       <c r="L32" t="n">
-        <v>2.0</v>
+        <v>0.9</v>
       </c>
       <c r="M32" t="n">
         <v>0.0</v>
@@ -3778,19 +3829,19 @@
         <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB32" t="n">
         <v>0.0</v>
@@ -3808,7 +3859,7 @@
         <v>0.0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.01</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -3816,37 +3867,37 @@
         <v>63</v>
       </c>
       <c r="B33" t="n">
-        <v>254.0</v>
+        <v>174.0</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F33" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G33" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="H33" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="I33" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="J33" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K33" t="n">
-        <v>170.0</v>
+        <v>277.0</v>
       </c>
       <c r="L33" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="M33" t="n">
         <v>0.0</v>
@@ -3879,37 +3930,37 @@
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="Y33" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" t="n">
         <v>0.0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="AE33" t="n">
         <v>0.0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="34">
@@ -3917,37 +3968,37 @@
         <v>64</v>
       </c>
       <c r="B34" t="n">
-        <v>266.0</v>
+        <v>227.0</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G34" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H34" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="I34" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="K34" t="n">
-        <v>83.0</v>
+        <v>419.0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="M34" t="n">
         <v>0.0</v>
@@ -3971,25 +4022,25 @@
         <v>0.0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA34" t="n">
         <v>4.0</v>
@@ -4010,7 +4061,7 @@
         <v>0.0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="35">
@@ -4018,100 +4069,403 @@
         <v>65</v>
       </c>
       <c r="B35" t="n">
-        <v>267.0</v>
+        <v>251.0</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" t="s">
+        <v>168</v>
+      </c>
+      <c r="H35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I35" t="s">
+        <v>185</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" t="s">
+        <v>169</v>
+      </c>
+      <c r="H36" t="s">
+        <v>182</v>
+      </c>
+      <c r="I36" t="s">
+        <v>188</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" t="s">
+        <v>170</v>
+      </c>
+      <c r="H37" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37" t="s">
+        <v>185</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
         <v>123</v>
       </c>
-      <c r="G35" t="s">
-        <v>157</v>
-      </c>
-      <c r="H35" t="s">
-        <v>165</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="E38" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" t="s">
         <v>171</v>
       </c>
-      <c r="J35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0.0</v>
+      <c r="H38" t="s">
+        <v>181</v>
+      </c>
+      <c r="I38" t="s">
+        <v>185</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>

--- a/Squads/B1/Charleroi_Beerschot VA_squad.xlsx
+++ b/Squads/B1/Charleroi_Beerschot VA_squad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="173">
   <si>
     <t>Rk</t>
   </si>
@@ -47,15 +47,15 @@
     <t>Min</t>
   </si>
   <si>
+    <t>90s</t>
+  </si>
+  <si>
     <t>Gls</t>
   </si>
   <si>
     <t>Ast</t>
   </si>
   <si>
-    <t>GlspAst</t>
-  </si>
-  <si>
     <t>npG</t>
   </si>
   <si>
@@ -110,115 +110,106 @@
     <t>npxG p90</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>52</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>114</t>
+    <t>86</t>
+  </si>
+  <si>
+    <t>115</t>
   </si>
   <si>
     <t>120</t>
   </si>
   <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>320</t>
+    <t>145</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
   </si>
   <si>
     <t>Etienne Camara</t>
@@ -227,108 +218,99 @@
     <t>Welat Cagro</t>
   </si>
   <si>
+    <t>Vetle Dragsnes</t>
+  </si>
+  <si>
     <t>Daan Heymans</t>
   </si>
   <si>
     <t>Jérémy Pétris</t>
   </si>
   <si>
+    <t>Yassine Titraoui</t>
+  </si>
+  <si>
+    <t>Charly Keita</t>
+  </si>
+  <si>
+    <t>Derrick Tshimanga</t>
+  </si>
+  <si>
+    <t>Stelios Andreou</t>
+  </si>
+  <si>
+    <t>Raymond Asante</t>
+  </si>
+  <si>
+    <t>Youssouph Badji</t>
+  </si>
+  <si>
+    <t>Antoine Bernier</t>
+  </si>
+  <si>
+    <t>Amine Boukamir</t>
+  </si>
+  <si>
+    <t>Oday Dabbagh</t>
+  </si>
+  <si>
+    <t>Parfait Guiagon</t>
+  </si>
+  <si>
+    <t>Check Keita</t>
+  </si>
+  <si>
+    <t>Mohamed Koné</t>
+  </si>
+  <si>
+    <t>Isaac Mbenza</t>
+  </si>
+  <si>
+    <t>Mardochee Nzita</t>
+  </si>
+  <si>
+    <t>Youssuf Sylla</t>
+  </si>
+  <si>
+    <t>Adem Zorgane</t>
+  </si>
+  <si>
+    <t>Ewan Henderson</t>
+  </si>
+  <si>
+    <t>Dean Huiberts</t>
+  </si>
+  <si>
+    <t>Tolis Konstantopoulos</t>
+  </si>
+  <si>
+    <t>Ar'jany Martha</t>
+  </si>
+  <si>
+    <t>Davor Matijas</t>
+  </si>
+  <si>
+    <t>Hervé Matthys</t>
+  </si>
+  <si>
     <t>Simion Michez</t>
   </si>
   <si>
-    <t>Stelios Andreou</t>
-  </si>
-  <si>
-    <t>Antoine Bernier</t>
-  </si>
-  <si>
-    <t>Vetle Dragsnes</t>
-  </si>
-  <si>
-    <t>Check Keita</t>
-  </si>
-  <si>
-    <t>Mohamed Koné</t>
-  </si>
-  <si>
-    <t>Yassine Titraoui</t>
-  </si>
-  <si>
-    <t>Charly Keita</t>
-  </si>
-  <si>
-    <t>Tolis Konstantopoulos</t>
-  </si>
-  <si>
-    <t>Davor Matijas</t>
+    <t>Brian Plat</t>
   </si>
   <si>
     <t>Tom Reyners</t>
   </si>
   <si>
-    <t>Derrick Tshimanga</t>
+    <t>Ryan Sanusi</t>
+  </si>
+  <si>
+    <t>Thibaud Verlinden</t>
   </si>
   <si>
     <t>Marco Weymans</t>
   </si>
   <si>
-    <t>Raymond Asante</t>
-  </si>
-  <si>
-    <t>Youssouph Badji</t>
-  </si>
-  <si>
-    <t>Amine Boukamir</t>
-  </si>
-  <si>
-    <t>Oday Dabbagh</t>
-  </si>
-  <si>
-    <t>Parfait Guiagon</t>
-  </si>
-  <si>
-    <t>Isaac Mbenza</t>
-  </si>
-  <si>
-    <t>Mardochee Nzita</t>
-  </si>
-  <si>
-    <t>Aiham Ousou</t>
-  </si>
-  <si>
-    <t>Youssuf Sylla</t>
-  </si>
-  <si>
-    <t>Adem Zorgane</t>
-  </si>
-  <si>
-    <t>Ewan Henderson</t>
-  </si>
-  <si>
-    <t>Dean Huiberts</t>
-  </si>
-  <si>
-    <t>Ayouba Kosiah</t>
-  </si>
-  <si>
-    <t>Ar'jany Martha</t>
-  </si>
-  <si>
-    <t>Hervé Matthys</t>
-  </si>
-  <si>
-    <t>Brian Plat</t>
-  </si>
-  <si>
-    <t>Ryan Sanusi</t>
-  </si>
-  <si>
-    <t>Óscar Vargas</t>
-  </si>
-  <si>
-    <t>Thibaud Verlinden</t>
-  </si>
-  <si>
     <t>D'Margio Wright-Phillips</t>
   </si>
   <si>
@@ -338,16 +320,31 @@
     <t>be BEL</t>
   </si>
   <si>
+    <t>no NOR</t>
+  </si>
+  <si>
+    <t>dz ALG</t>
+  </si>
+  <si>
     <t>cy CYP</t>
   </si>
   <si>
-    <t>no NOR</t>
+    <t>gh GHA</t>
+  </si>
+  <si>
+    <t>sn SEN</t>
+  </si>
+  <si>
+    <t>ps PLE</t>
   </si>
   <si>
     <t>ci CIV</t>
   </si>
   <si>
-    <t>dz ALG</t>
+    <t>sct SCO</t>
+  </si>
+  <si>
+    <t>nl NED</t>
   </si>
   <si>
     <t>gr GRE</t>
@@ -359,30 +356,6 @@
     <t>bi BDI</t>
   </si>
   <si>
-    <t>gh GHA</t>
-  </si>
-  <si>
-    <t>sn SEN</t>
-  </si>
-  <si>
-    <t>ps PLE</t>
-  </si>
-  <si>
-    <t>sy SYR</t>
-  </si>
-  <si>
-    <t>sct SCO</t>
-  </si>
-  <si>
-    <t>nl NED</t>
-  </si>
-  <si>
-    <t>lr LBR</t>
-  </si>
-  <si>
-    <t>es ESP</t>
-  </si>
-  <si>
     <t>eng ENG</t>
   </si>
   <si>
@@ -392,142 +365,127 @@
     <t>DF</t>
   </si>
   <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>FW,MF</t>
+  </si>
+  <si>
+    <t>MF,FW</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
     <t>DF,MF</t>
   </si>
   <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>GK</t>
-  </si>
-  <si>
-    <t>MF,FW</t>
-  </si>
-  <si>
-    <t>FW,MF</t>
-  </si>
-  <si>
-    <t>FW,DF</t>
-  </si>
-  <si>
-    <t>DF,FW</t>
-  </si>
-  <si>
     <t>Charleroi</t>
   </si>
   <si>
     <t>Beerschot VA</t>
   </si>
   <si>
-    <t>21-153</t>
-  </si>
-  <si>
-    <t>25-091</t>
-  </si>
-  <si>
-    <t>25-076</t>
-  </si>
-  <si>
-    <t>26-215</t>
-  </si>
-  <si>
-    <t>22-203</t>
-  </si>
-  <si>
-    <t>22-037</t>
-  </si>
-  <si>
-    <t>26-355</t>
-  </si>
-  <si>
-    <t>30-206</t>
-  </si>
-  <si>
-    <t>21-150</t>
-  </si>
-  <si>
-    <t>22-176</t>
-  </si>
-  <si>
-    <t>21-035</t>
-  </si>
-  <si>
-    <t>25-075</t>
-  </si>
-  <si>
-    <t>22-028</t>
-  </si>
-  <si>
-    <t>25-007</t>
+    <t>21-129</t>
+  </si>
+  <si>
+    <t>25-067</t>
+  </si>
+  <si>
+    <t>30-182</t>
+  </si>
+  <si>
+    <t>25-052</t>
+  </si>
+  <si>
+    <t>26-191</t>
+  </si>
+  <si>
+    <t>21-011</t>
+  </si>
+  <si>
+    <t>25-051</t>
+  </si>
+  <si>
+    <t>35-274</t>
+  </si>
+  <si>
+    <t>22-013</t>
+  </si>
+  <si>
+    <t>20-071</t>
+  </si>
+  <si>
+    <t>22-230</t>
+  </si>
+  <si>
+    <t>26-331</t>
+  </si>
+  <si>
+    <t>17-288</t>
+  </si>
+  <si>
+    <t>25-247</t>
+  </si>
+  <si>
+    <t>23-166</t>
+  </si>
+  <si>
+    <t>21-126</t>
+  </si>
+  <si>
+    <t>22-152</t>
+  </si>
+  <si>
+    <t>28-151</t>
+  </si>
+  <si>
+    <t>24-164</t>
+  </si>
+  <si>
+    <t>21-231</t>
+  </si>
+  <si>
+    <t>24-213</t>
   </si>
   <si>
     <t>24-132</t>
   </si>
   <si>
-    <t>35-298</t>
-  </si>
-  <si>
-    <t>27-052</t>
-  </si>
-  <si>
-    <t>20-095</t>
-  </si>
-  <si>
-    <t>22-254</t>
-  </si>
-  <si>
-    <t>17-312</t>
-  </si>
-  <si>
-    <t>25-271</t>
-  </si>
-  <si>
-    <t>23-190</t>
-  </si>
-  <si>
-    <t>28-175</t>
-  </si>
-  <si>
-    <t>24-188</t>
-  </si>
-  <si>
-    <t>24-234</t>
-  </si>
-  <si>
-    <t>21-255</t>
-  </si>
-  <si>
-    <t>24-237</t>
-  </si>
-  <si>
-    <t>24-156</t>
-  </si>
-  <si>
-    <t>24-106</t>
-  </si>
-  <si>
-    <t>23-039</t>
-  </si>
-  <si>
-    <t>20-361</t>
-  </si>
-  <si>
-    <t>28-224</t>
-  </si>
-  <si>
-    <t>24-147</t>
-  </si>
-  <si>
-    <t>32-238</t>
-  </si>
-  <si>
-    <t>18-212</t>
-  </si>
-  <si>
-    <t>25-052</t>
-  </si>
-  <si>
-    <t>22-341</t>
+    <t>24-082</t>
+  </si>
+  <si>
+    <t>22-004</t>
+  </si>
+  <si>
+    <t>20-337</t>
+  </si>
+  <si>
+    <t>24-349</t>
+  </si>
+  <si>
+    <t>28-200</t>
+  </si>
+  <si>
+    <t>22-179</t>
+  </si>
+  <si>
+    <t>24-123</t>
+  </si>
+  <si>
+    <t>24-108</t>
+  </si>
+  <si>
+    <t>32-214</t>
+  </si>
+  <si>
+    <t>25-028</t>
+  </si>
+  <si>
+    <t>27-028</t>
+  </si>
+  <si>
+    <t>22-317</t>
   </si>
   <si>
     <t>2003</t>
@@ -536,52 +494,43 @@
     <t>1999</t>
   </si>
   <si>
+    <t>1994</t>
+  </si>
+  <si>
     <t>1998</t>
   </si>
   <si>
+    <t>1988</t>
+  </si>
+  <si>
     <t>2002</t>
   </si>
   <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>1997</t>
   </si>
   <si>
-    <t>1994</t>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>1996</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
     <t>1992</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>2</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
@@ -736,37 +685,37 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>52.0</v>
+        <v>45.0</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
         <v>124</v>
       </c>
-      <c r="F2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" t="s">
-        <v>135</v>
-      </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="K2" t="n">
-        <v>394.0</v>
+        <v>143.0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -787,31 +736,31 @@
         <v>0.0</v>
       </c>
       <c r="S2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
         <v>4.0</v>
       </c>
-      <c r="T2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>18.0</v>
-      </c>
       <c r="AA2" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB2" t="n">
         <v>0.0</v>
@@ -829,7 +778,7 @@
         <v>0.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -837,82 +786,82 @@
         <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>50.0</v>
+        <v>43.0</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" t="n">
         <v>5.0</v>
       </c>
-      <c r="K3" t="n">
-        <v>424.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>17.0</v>
-      </c>
       <c r="AA3" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB3" t="n">
         <v>0.0</v>
@@ -930,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -938,100 +887,100 @@
         <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>116.0</v>
+        <v>65.0</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="I4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="K4" t="n">
-        <v>447.0</v>
+        <v>171.0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.0</v>
+        <v>1.9</v>
       </c>
       <c r="M4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="P4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T4" t="n">
         <v>0.0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.9</v>
+        <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X4" t="n">
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>26.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.81</v>
+        <v>0.0</v>
       </c>
       <c r="AC4" t="n">
         <v>0.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.81</v>
+        <v>0.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.59</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -1039,100 +988,100 @@
         <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>224.0</v>
+        <v>95.0</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="K5" t="n">
-        <v>450.0</v>
+        <v>177.0</v>
       </c>
       <c r="L5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
       </c>
       <c r="U5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W5" t="n">
         <v>0.1</v>
       </c>
-      <c r="V5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.4</v>
-      </c>
       <c r="X5" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="Y5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z5" t="n">
         <v>12.0</v>
       </c>
-      <c r="Z5" t="n">
-        <v>24.0</v>
-      </c>
       <c r="AA5" t="n">
-        <v>26.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0</v>
+        <v>1.02</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2</v>
+        <v>1.02</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0</v>
+        <v>0.51</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.2</v>
+        <v>0.51</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.01</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -1140,100 +1089,100 @@
         <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>184.0</v>
+        <v>185.0</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="I6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="K6" t="n">
-        <v>438.0</v>
+        <v>180.0</v>
       </c>
       <c r="L6" t="n">
-        <v>4.9</v>
+        <v>2.0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="N6" t="n">
         <v>1.0</v>
       </c>
       <c r="O6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y6" t="n">
         <v>3.0</v>
       </c>
-      <c r="P6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>12.0</v>
-      </c>
       <c r="Z6" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>26.0</v>
+        <v>13.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.41</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.41</v>
+        <v>0.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.14</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -1241,37 +1190,37 @@
         <v>37</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0</v>
+        <v>240.0</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J7" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="K7" t="n">
-        <v>450.0</v>
+        <v>10.0</v>
       </c>
       <c r="L7" t="n">
-        <v>5.0</v>
+        <v>0.1</v>
       </c>
       <c r="M7" t="n">
         <v>0.0</v>
@@ -1298,22 +1247,22 @@
         <v>0.0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="W7" t="n">
         <v>0.0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA7" t="n">
         <v>0.0</v>
@@ -1334,7 +1283,7 @@
         <v>0.0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -1342,100 +1291,100 @@
         <v>38</v>
       </c>
       <c r="B8" t="n">
-        <v>36.0</v>
+        <v>114.0</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H8" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="I8" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y8" t="n">
         <v>4.0</v>
       </c>
-      <c r="K8" t="n">
-        <v>317.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>14.0</v>
-      </c>
       <c r="Z8" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>39.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="AC8" t="n">
         <v>0.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
@@ -1443,37 +1392,37 @@
         <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>78.0</v>
+        <v>241.0</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="H9" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="I9" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="K9" t="n">
-        <v>438.0</v>
+        <v>180.0</v>
       </c>
       <c r="L9" t="n">
-        <v>4.9</v>
+        <v>2.0</v>
       </c>
       <c r="M9" t="n">
         <v>0.0</v>
@@ -1506,19 +1455,19 @@
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" t="n">
         <v>0.0</v>
@@ -1536,7 +1485,7 @@
         <v>0.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.01</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -1544,37 +1493,37 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>139.0</v>
+        <v>14.0</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H10" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I10" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J10" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="K10" t="n">
-        <v>415.0</v>
+        <v>180.0</v>
       </c>
       <c r="L10" t="n">
-        <v>4.6</v>
+        <v>2.0</v>
       </c>
       <c r="M10" t="n">
         <v>0.0</v>
@@ -1595,31 +1544,31 @@
         <v>0.0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T10" t="n">
         <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W10" t="n">
         <v>0.0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" t="n">
         <v>0.0</v>
@@ -1637,7 +1586,7 @@
         <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11">
@@ -1645,37 +1594,37 @@
         <v>41</v>
       </c>
       <c r="B11" t="n">
-        <v>146.0</v>
+        <v>18.0</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
         <v>133</v>
       </c>
-      <c r="G11" t="s">
-        <v>144</v>
-      </c>
       <c r="H11" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I11" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J11" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="K11" t="n">
-        <v>450.0</v>
+        <v>21.0</v>
       </c>
       <c r="L11" t="n">
-        <v>5.0</v>
+        <v>0.2</v>
       </c>
       <c r="M11" t="n">
         <v>0.0</v>
@@ -1696,7 +1645,7 @@
         <v>0.0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
@@ -1720,7 +1669,7 @@
         <v>0.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB11" t="n">
         <v>0.0</v>
@@ -1738,7 +1687,7 @@
         <v>0.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
@@ -1746,37 +1695,37 @@
         <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>286.0</v>
+        <v>21.0</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="H12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I12" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="J12" t="n">
         <v>0.0</v>
       </c>
       <c r="K12" t="n">
-        <v>29.0</v>
+        <v>37.0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="M12" t="n">
         <v>0.0</v>
@@ -1797,31 +1746,31 @@
         <v>0.0</v>
       </c>
       <c r="S12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB12" t="n">
         <v>0.0</v>
@@ -1839,7 +1788,7 @@
         <v>0.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="13">
@@ -1847,37 +1796,37 @@
         <v>43</v>
       </c>
       <c r="B13" t="n">
-        <v>138.0</v>
+        <v>33.0</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I13" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J13" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="K13" t="n">
-        <v>354.0</v>
+        <v>95.0</v>
       </c>
       <c r="L13" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="M13" t="n">
         <v>1.0</v>
@@ -1898,49 +1847,49 @@
         <v>0.0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T13" t="n">
         <v>0.0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="X13" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
       <c r="AC13" t="n">
         <v>0.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="14">
@@ -1948,37 +1897,37 @@
         <v>44</v>
       </c>
       <c r="B14" t="n">
-        <v>148.0</v>
+        <v>38.0</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H14" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I14" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="J14" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K14" t="n">
-        <v>315.0</v>
+        <v>11.0</v>
       </c>
       <c r="L14" t="n">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="M14" t="n">
         <v>0.0</v>
@@ -1999,7 +1948,7 @@
         <v>0.0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T14" t="n">
         <v>0.0</v>
@@ -2017,13 +1966,13 @@
         <v>0.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" t="n">
         <v>0.0</v>
@@ -2041,7 +1990,7 @@
         <v>0.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.01</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -2049,37 +1998,37 @@
         <v>45</v>
       </c>
       <c r="B15" t="n">
-        <v>173.0</v>
+        <v>52.0</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I15" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J15" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="K15" t="n">
-        <v>450.0</v>
+        <v>26.0</v>
       </c>
       <c r="L15" t="n">
-        <v>5.0</v>
+        <v>0.3</v>
       </c>
       <c r="M15" t="n">
         <v>0.0</v>
@@ -2100,31 +2049,31 @@
         <v>0.0</v>
       </c>
       <c r="S15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T15" t="n">
         <v>0.0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB15" t="n">
         <v>0.0</v>
@@ -2142,7 +2091,7 @@
         <v>0.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="16">
@@ -2150,49 +2099,49 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>237.0</v>
+        <v>86.0</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="H16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="I16" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="J16" t="n">
         <v>2.0</v>
       </c>
       <c r="K16" t="n">
-        <v>191.0</v>
+        <v>159.0</v>
       </c>
       <c r="L16" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q16" t="n">
         <v>0.0</v>
@@ -2201,49 +2150,49 @@
         <v>0.0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T16" t="n">
         <v>0.0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0</v>
+        <v>0.57</v>
       </c>
       <c r="AC16" t="n">
         <v>0.0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0</v>
+        <v>0.57</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0</v>
+        <v>0.57</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.0</v>
+        <v>0.57</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
@@ -2251,49 +2200,49 @@
         <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>289.0</v>
+        <v>115.0</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H17" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="I17" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J17" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="K17" t="n">
-        <v>405.0</v>
+        <v>180.0</v>
       </c>
       <c r="L17" t="n">
-        <v>4.5</v>
+        <v>2.0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" t="n">
         <v>0.0</v>
@@ -2302,49 +2251,49 @@
         <v>0.0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T17" t="n">
         <v>0.0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W17" t="n">
         <v>0.0</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.22</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" t="n">
         <v>0.0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.22</v>
+        <v>0.0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.22</v>
+        <v>0.0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.22</v>
+        <v>0.0</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18">
@@ -2352,37 +2301,37 @@
         <v>48</v>
       </c>
       <c r="B18" t="n">
-        <v>319.0</v>
+        <v>120.0</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="H18" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="J18" t="n">
         <v>2.0</v>
       </c>
       <c r="K18" t="n">
-        <v>284.0</v>
+        <v>180.0</v>
       </c>
       <c r="L18" t="n">
-        <v>3.2</v>
+        <v>2.0</v>
       </c>
       <c r="M18" t="n">
         <v>0.0</v>
@@ -2403,31 +2352,31 @@
         <v>0.0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T18" t="n">
         <v>0.0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="V18" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X18" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" t="n">
         <v>0.0</v>
@@ -2445,7 +2394,7 @@
         <v>0.0</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -2453,37 +2402,37 @@
         <v>49</v>
       </c>
       <c r="B19" t="n">
-        <v>20.0</v>
+        <v>145.0</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H19" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K19" t="n">
-        <v>21.0</v>
+        <v>85.0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="M19" t="n">
         <v>0.0</v>
@@ -2522,13 +2471,13 @@
         <v>0.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB19" t="n">
         <v>0.0</v>
@@ -2546,7 +2495,7 @@
         <v>0.0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="20">
@@ -2554,46 +2503,46 @@
         <v>50</v>
       </c>
       <c r="B20" t="n">
-        <v>24.0</v>
+        <v>172.0</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
         <v>116</v>
       </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H20" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J20" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>205.0</v>
+        <v>9.0</v>
       </c>
       <c r="L20" t="n">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="M20" t="n">
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P20" t="n">
         <v>0.0</v>
@@ -2611,43 +2560,43 @@
         <v>0.0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.7</v>
+        <v>0.0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.7</v>
+        <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="X20" t="n">
-        <v>2.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" t="n">
         <v>0.0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.44</v>
+        <v>0.0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.44</v>
+        <v>0.0</v>
       </c>
       <c r="AE20" t="n">
         <v>0.0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.44</v>
+        <v>0.0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.73</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -2655,37 +2604,37 @@
         <v>51</v>
       </c>
       <c r="B21" t="n">
-        <v>44.0</v>
+        <v>234.0</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H21" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="I21" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K21" t="n">
-        <v>11.0</v>
+        <v>143.0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="M21" t="n">
         <v>0.0</v>
@@ -2712,25 +2661,25 @@
         <v>0.0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="W21" t="n">
         <v>0.0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB21" t="n">
         <v>0.0</v>
@@ -2748,7 +2697,7 @@
         <v>0.0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="22">
@@ -2756,46 +2705,46 @@
         <v>52</v>
       </c>
       <c r="B22" t="n">
-        <v>62.0</v>
+        <v>273.0</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H22" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I22" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K22" t="n">
-        <v>61.0</v>
+        <v>173.0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="M22" t="n">
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P22" t="n">
         <v>0.0</v>
@@ -2825,31 +2774,31 @@
         <v>0.3</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB22" t="n">
         <v>0.0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0</v>
+        <v>0.52</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.0</v>
+        <v>0.52</v>
       </c>
       <c r="AE22" t="n">
         <v>0.0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.0</v>
+        <v>0.52</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="23">
@@ -2857,49 +2806,49 @@
         <v>53</v>
       </c>
       <c r="B23" t="n">
-        <v>107.0</v>
+        <v>93.0</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H23" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J23" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="K23" t="n">
-        <v>397.0</v>
+        <v>31.0</v>
       </c>
       <c r="L23" t="n">
-        <v>4.4</v>
+        <v>0.3</v>
       </c>
       <c r="M23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23" t="n">
         <v>0.0</v>
@@ -2914,43 +2863,43 @@
         <v>0.0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.3</v>
+        <v>0.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.23</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" t="n">
         <v>0.0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.23</v>
+        <v>0.0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.23</v>
+        <v>0.0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.23</v>
+        <v>0.0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.16</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
@@ -2958,37 +2907,37 @@
         <v>54</v>
       </c>
       <c r="B24" t="n">
-        <v>176.0</v>
+        <v>98.0</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H24" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="I24" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K24" t="n">
-        <v>117.0</v>
+        <v>23.0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="M24" t="n">
         <v>0.0</v>
@@ -3015,25 +2964,25 @@
         <v>0.0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V24" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W24" t="n">
         <v>0.0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA24" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" t="n">
         <v>0.0</v>
@@ -3051,7 +3000,7 @@
         <v>0.0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.09</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -3059,37 +3008,37 @@
         <v>55</v>
       </c>
       <c r="B25" t="n">
-        <v>207.0</v>
+        <v>121.0</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G25" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="H25" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="I25" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K25" t="n">
-        <v>21.0</v>
+        <v>180.0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2</v>
+        <v>2.0</v>
       </c>
       <c r="M25" t="n">
         <v>0.0</v>
@@ -3128,13 +3077,13 @@
         <v>0.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB25" t="n">
         <v>0.0</v>
@@ -3160,37 +3109,37 @@
         <v>56</v>
       </c>
       <c r="B26" t="n">
-        <v>221.0</v>
+        <v>140.0</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H26" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="I26" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="J26" t="n">
         <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>39.0</v>
+        <v>10.0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="M26" t="n">
         <v>0.0</v>
@@ -3235,7 +3184,7 @@
         <v>0.0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB26" t="n">
         <v>0.0</v>
@@ -3253,7 +3202,7 @@
         <v>0.0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.03</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -3261,37 +3210,37 @@
         <v>57</v>
       </c>
       <c r="B27" t="n">
-        <v>280.0</v>
+        <v>142.0</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="I27" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J27" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K27" t="n">
-        <v>245.0</v>
+        <v>180.0</v>
       </c>
       <c r="L27" t="n">
-        <v>2.7</v>
+        <v>2.0</v>
       </c>
       <c r="M27" t="n">
         <v>0.0</v>
@@ -3318,25 +3267,25 @@
         <v>0.0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="W27" t="n">
         <v>0.0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" t="n">
         <v>0.0</v>
@@ -3354,7 +3303,7 @@
         <v>0.0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.17</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -3362,46 +3311,46 @@
         <v>58</v>
       </c>
       <c r="B28" t="n">
-        <v>328.0</v>
+        <v>143.0</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G28" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H28" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="I28" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J28" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="K28" t="n">
-        <v>443.0</v>
+        <v>97.0</v>
       </c>
       <c r="L28" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="M28" t="n">
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="O28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P28" t="n">
         <v>0.0</v>
@@ -3419,43 +3368,43 @@
         <v>0.0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.1</v>
+        <v>0.0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.2</v>
+        <v>0.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>56.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" t="n">
         <v>0.0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.41</v>
+        <v>0.0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.41</v>
+        <v>0.0</v>
       </c>
       <c r="AE28" t="n">
         <v>0.0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.41</v>
+        <v>0.0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -3463,100 +3412,100 @@
         <v>59</v>
       </c>
       <c r="B29" t="n">
-        <v>114.0</v>
+        <v>152.0</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G29" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="H29" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="I29" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="J29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z29" t="n">
         <v>3.0</v>
       </c>
-      <c r="K29" t="n">
-        <v>234.0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>8.0</v>
-      </c>
       <c r="AA29" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.38</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.38</v>
+        <v>0.0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.38</v>
+        <v>0.0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.38</v>
+        <v>0.0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.14</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -3564,37 +3513,37 @@
         <v>60</v>
       </c>
       <c r="B30" t="n">
-        <v>120.0</v>
+        <v>188.0</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H30" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="I30" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K30" t="n">
-        <v>34.0</v>
+        <v>180.0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.4</v>
+        <v>2.0</v>
       </c>
       <c r="M30" t="n">
         <v>0.0</v>
@@ -3621,25 +3570,25 @@
         <v>0.0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z30" t="n">
         <v>2.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB30" t="n">
         <v>0.0</v>
@@ -3657,7 +3606,7 @@
         <v>0.0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="31">
@@ -3665,37 +3614,37 @@
         <v>61</v>
       </c>
       <c r="B31" t="n">
-        <v>149.0</v>
+        <v>197.0</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="H31" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="I31" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K31" t="n">
-        <v>53.0</v>
+        <v>135.0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
@@ -3734,13 +3683,13 @@
         <v>0.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="AB31" t="n">
         <v>0.0</v>
@@ -3766,37 +3715,37 @@
         <v>62</v>
       </c>
       <c r="B32" t="n">
-        <v>171.0</v>
+        <v>209.0</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F32" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G32" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="H32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I32" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="J32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K32" t="n">
-        <v>80.0</v>
+        <v>180.0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9</v>
+        <v>2.0</v>
       </c>
       <c r="M32" t="n">
         <v>0.0</v>
@@ -3829,19 +3778,19 @@
         <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB32" t="n">
         <v>0.0</v>
@@ -3859,7 +3808,7 @@
         <v>0.0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33">
@@ -3867,100 +3816,100 @@
         <v>63</v>
       </c>
       <c r="B33" t="n">
-        <v>174.0</v>
+        <v>254.0</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H33" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="I33" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="J33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>4.0</v>
       </c>
-      <c r="K33" t="n">
-        <v>277.0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Z33" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="AB33" t="n">
         <v>0.0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
       <c r="AE33" t="n">
         <v>0.0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="34">
@@ -3968,37 +3917,37 @@
         <v>64</v>
       </c>
       <c r="B34" t="n">
-        <v>227.0</v>
+        <v>266.0</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G34" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="H34" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="I34" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J34" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="K34" t="n">
-        <v>419.0</v>
+        <v>83.0</v>
       </c>
       <c r="L34" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="M34" t="n">
         <v>0.0</v>
@@ -4022,25 +3971,25 @@
         <v>0.0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="V34" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W34" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA34" t="n">
         <v>4.0</v>
@@ -4061,7 +4010,7 @@
         <v>0.0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -4069,37 +4018,37 @@
         <v>65</v>
       </c>
       <c r="B35" t="n">
-        <v>251.0</v>
+        <v>267.0</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G35" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="H35" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="I35" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J35" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="K35" t="n">
-        <v>450.0</v>
+        <v>16.0</v>
       </c>
       <c r="L35" t="n">
-        <v>5.0</v>
+        <v>0.2</v>
       </c>
       <c r="M35" t="n">
         <v>0.0</v>
@@ -4132,19 +4081,19 @@
         <v>0.0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" t="n">
         <v>0.0</v>
@@ -4163,309 +4112,6 @@
       </c>
       <c r="AG35" t="n">
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" t="n">
-        <v>304.0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" t="s">
-        <v>169</v>
-      </c>
-      <c r="H36" t="s">
-        <v>182</v>
-      </c>
-      <c r="I36" t="s">
-        <v>188</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="n">
-        <v>306.0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" t="s">
-        <v>134</v>
-      </c>
-      <c r="G37" t="s">
-        <v>170</v>
-      </c>
-      <c r="H37" t="s">
-        <v>173</v>
-      </c>
-      <c r="I37" t="s">
-        <v>185</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>440.0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" t="s">
-        <v>171</v>
-      </c>
-      <c r="H38" t="s">
-        <v>181</v>
-      </c>
-      <c r="I38" t="s">
-        <v>185</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0.04</v>
       </c>
     </row>
   </sheetData>
